--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reason.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3B88C-2351-47D6-A8AC-50FA631CE0CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C6F61-9BDA-4641-BC1D-677D64325155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>company_code</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -470,23 +470,6 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -504,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D995076-2F1B-4719-91B1-0373FF457049}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -516,43 +499,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -574,7 +557,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3" xr:uid="{DAD6AAD8-034C-4CD0-8EF8-861FAA39EFEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3" xr:uid="{DAD6AAD8-034C-4CD0-8EF8-861FAA39EFEC}">
       <formula1>"EMP,LEAVE,OT,DAT,SHT,ONS,SAL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reason.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Reason.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C6F61-9BDA-4641-BC1D-677D64325155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8AA50-32B0-441E-A01F-6729279F0283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>company_code</t>
   </si>
@@ -49,12 +49,6 @@
     <t>OPR</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>LEAVE</t>
-  </si>
-  <si>
     <t>ลาพักร้อน</t>
   </si>
   <si>
@@ -64,10 +58,13 @@
     <t>รหัสบริษัท</t>
   </si>
   <si>
-    <t>เลขที่ เหตุผล</t>
-  </si>
-  <si>
     <t>รหัสเหตุผล</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาไทย</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาอังกฤษ</t>
   </si>
   <si>
     <t>กลุ่ม เหตุผล
@@ -77,13 +74,22 @@
 DAT = ขอเปลี่ยนวัน
 SHT = ขอเปลี่ยนกะ
 ONS = ขอลงเวลา
-SAL = ปรับเงินเดือน</t>
-  </si>
-  <si>
-    <t>ชื่อ ภาษาไทย</t>
-  </si>
-  <si>
-    <t>ชื่อ ภาษาอังกฤษ</t>
+SAL = ปรับเงินเดือน BLACK = เบล็คลิสต์</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -131,12 +137,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -145,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,6 +178,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -472,10 +502,37 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{038619BC-C141-4C03-964D-CFADA63BA75A}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D10:D1048576" xr:uid="{038619BC-C141-4C03-964D-CFADA63BA75A}">
       <formula1>"EMP,LEAVE,OT,DAT,SHT,ONS,SAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{CA0B7A70-A76D-4CA4-8762-04015272375A}">
+      <formula1>"EMP,LEAVE,OT,DAT,SHT,ONS,SAL,BLACK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -485,40 +542,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D995076-2F1B-4719-91B1-0373FF457049}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="24" style="1"/>
-    <col min="4" max="4" width="105.453125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24" style="1"/>
+    <col min="1" max="1" width="24" style="1"/>
+    <col min="2" max="2" width="34.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1"/>
+    <col min="4" max="4" width="110.54296875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="24" style="1"/>
+    <col min="8" max="9" width="25.7265625" customWidth="1"/>
+    <col min="10" max="16384" width="24" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,28 +600,40 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3" xr:uid="{DAD6AAD8-034C-4CD0-8EF8-861FAA39EFEC}">
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{DAD6AAD8-034C-4CD0-8EF8-861FAA39EFEC}">
       <formula1>"EMP,LEAVE,OT,DAT,SHT,ONS,SAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{6E22F36F-C835-43D4-BE8B-1746B57517F3}">
+      <formula1>"EMP,LEAVE,OT,DAT,SHT,ONS,SAL,BLACK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
